--- a/Techniques.xlsx
+++ b/Techniques.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kobalaji\Desktop\LetsUpgrade AI-ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BCC5C5-7A19-4A78-AC65-4FD9E0801CFA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CC347D-B666-4A79-B8BA-494E72CBD52F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Unsuprivised" sheetId="1" r:id="rId1"/>
+    <sheet name="Statistical test" sheetId="3" r:id="rId2"/>
+    <sheet name="Distribution" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="134">
   <si>
     <t>Classification Technique</t>
   </si>
@@ -289,6 +291,206 @@
   </si>
   <si>
     <t>Regression</t>
+  </si>
+  <si>
+    <t>Different types of Tests:</t>
+  </si>
+  <si>
+    <t>Two different :</t>
+  </si>
+  <si>
+    <t>Parameteric vs non Parametric</t>
+  </si>
+  <si>
+    <t>If data is uniform distrubited then parametric else non parametric</t>
+  </si>
+  <si>
+    <t>Non Parametric Test</t>
+  </si>
+  <si>
+    <t>Purpose of test</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Python Package</t>
+  </si>
+  <si>
+    <t>Wilcoxon - Sign test</t>
+  </si>
+  <si>
+    <t>It is used to compare two paired sample</t>
+  </si>
+  <si>
+    <t>from scipy.stat import wilcoxon
+stats , p = wilcoxon(df['YearsAtCompany'],df['WorkingExperiance'])</t>
+  </si>
+  <si>
+    <t>Friedman Test</t>
+  </si>
+  <si>
+    <t>It is used to compare more than two paired sample</t>
+  </si>
+  <si>
+    <t>Same People/Sample are compared to more than two paired Sample(Week1 Calcium level column,Week2 Calcium level column and Week3 Calcium level column</t>
+  </si>
+  <si>
+    <t>from scipy.stat import Friedman
+stats , p = Friedman(df['YearsAtCompany'],df['WorkingExperiance'],df['PresentCompanyExp'])</t>
+  </si>
+  <si>
+    <t>Man-Whitney Test</t>
+  </si>
+  <si>
+    <t>It is used to compare two independent sample</t>
+  </si>
+  <si>
+    <t>Brand 1 vs Brand 2 sale</t>
+  </si>
+  <si>
+    <t>from scipy.stat import Manwhitenyu
+stats , p = Manwhitenyu(df['Age'],df['YearofExperiance'])</t>
+  </si>
+  <si>
+    <t>Kruskal-Wallis Test</t>
+  </si>
+  <si>
+    <t>It is used to compare more than two independent sample</t>
+  </si>
+  <si>
+    <t>Brand 1 vs Brand 2 vs Brand 3 sale</t>
+  </si>
+  <si>
+    <t>Chi-Square Test</t>
+  </si>
+  <si>
+    <t>It is used to check the dependancy of variables and Variable should be categorical</t>
+  </si>
+  <si>
+    <t>Gender vs Smoker</t>
+  </si>
+  <si>
+    <t>chi2.contengcy</t>
+  </si>
+  <si>
+    <t>Parametric Test</t>
+  </si>
+  <si>
+    <t>One-Sample t-test</t>
+  </si>
+  <si>
+    <t>It is used to compare sample mean with population mean</t>
+  </si>
+  <si>
+    <t>Sample mean given and Population mean is assumed</t>
+  </si>
+  <si>
+    <t>ttest_1sampl</t>
+  </si>
+  <si>
+    <t>Two-Sample Paired t-test</t>
+  </si>
+  <si>
+    <t>It is used to compare mean of two paired samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paired sample like Maths and Science </t>
+  </si>
+  <si>
+    <t>ttest_rel</t>
+  </si>
+  <si>
+    <t>Two-Sample Separate t-test
+Two-Sample Independent  t-test</t>
+  </si>
+  <si>
+    <t>It is used to compare the mean of independent sample</t>
+  </si>
+  <si>
+    <t>Atheict and non Atheletic (Independent Variable)</t>
+  </si>
+  <si>
+    <t>ttest_ind</t>
+  </si>
+  <si>
+    <t>One sample F-test (One way ANOVA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is used when dependent variable is continous and independent variable is categorical </t>
+  </si>
+  <si>
+    <t>Two sample F-test (Two way ANOVA)</t>
+  </si>
+  <si>
+    <t>It is used when dependent variable is continous and independent variable is categorical in which there two independent variables</t>
+  </si>
+  <si>
+    <t>Stattistcal Technique</t>
+  </si>
+  <si>
+    <t>Dependent variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Independent variable </t>
+  </si>
+  <si>
+    <t>Purpose of Technique</t>
+  </si>
+  <si>
+    <t>Purpose of Distirbution</t>
+  </si>
+  <si>
+    <t>Same Sample are compared to two paired Sample(Week1 Calcium level column to Week2 Calcium level column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binomial Probability </t>
+  </si>
+  <si>
+    <t>It is used to find the probability of occuring the events in which each event has 2 occurance and each events are independent of each other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poisson Probability </t>
+  </si>
+  <si>
+    <t>It is used to find the probability of occuring the events in specific interval period of  time or distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyper Geometeric Probability </t>
+  </si>
+  <si>
+    <t>It is used to find the probability of occuring the events in which each event has 2 occurance and each events are dependent on each other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uniform Probability </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is used to find the probability of occuring the events in same charactertics of responses </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal Probability </t>
+  </si>
+  <si>
+    <t>It is used to find the probability of occuring the events in randomly distributed population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exponential Probability </t>
+  </si>
+  <si>
+    <t>It is used to find the probability of occuring the events in between interval period of time or distance</t>
+  </si>
+  <si>
+    <t>Discrete Probablity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continous Probablity </t>
+  </si>
+  <si>
+    <t>Different Distribution probability</t>
+  </si>
+  <si>
+    <t>Yes or No,
+Win or Loss</t>
   </si>
 </sst>
 </file>
@@ -348,7 +550,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,8 +587,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -568,11 +800,197 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -690,6 +1108,66 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -973,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,4 +1999,510 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E3F9F9-CA1C-429C-8A0B-119E5916A14A}">
+  <dimension ref="A1:F58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="53.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+    </row>
+    <row r="19" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="D23" s="63" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="65" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="11"/>
+    </row>
+    <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D41" s="14"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D42" s="14"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D43" s="14"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="18"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DEC546-B869-4455-8333-3BA4ED02E931}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="127" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="68" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="69" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="69" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="70" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="71" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>